--- a/project/support/send/Inguerito.xlsx
+++ b/project/support/send/Inguerito.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Colaborador 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Colaborador" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -365,7 +365,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project/support/send/Inguerito.xlsx
+++ b/project/support/send/Inguerito.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Cultura Organizacional</t>
   </si>
   <si>
     <t xml:space="preserve">Nome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson Faria</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -365,7 +368,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,7 +395,9 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -427,38 +432,38 @@
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -470,10 +475,10 @@
     </row>
     <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -485,10 +490,10 @@
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -500,10 +505,10 @@
     </row>
     <row r="12" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -515,10 +520,10 @@
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -530,10 +535,10 @@
     </row>
     <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -545,10 +550,10 @@
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -560,10 +565,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -575,10 +580,10 @@
     </row>
     <row r="17" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -590,10 +595,10 @@
     </row>
     <row r="18" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -605,10 +610,10 @@
     </row>
     <row r="19" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -620,10 +625,10 @@
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -635,10 +640,10 @@
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -650,10 +655,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -665,10 +670,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -680,10 +685,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -695,7 +700,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/project/support/send/Inguerito.xlsx
+++ b/project/support/send/Inguerito.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Cultura Organizacional</t>
   </si>
   <si>
     <t xml:space="preserve">Nome:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelson Faria</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -247,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,10 +275,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -368,7 +361,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,9 +388,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -432,38 +423,38 @@
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -471,14 +462,14 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -486,14 +477,14 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -501,14 +492,14 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -516,14 +507,14 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -531,14 +522,14 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -546,14 +537,14 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -561,14 +552,14 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -576,14 +567,14 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -591,14 +582,14 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -606,14 +597,14 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -621,14 +612,14 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -636,14 +627,14 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -651,14 +642,14 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -666,14 +657,14 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -681,14 +672,14 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -696,11 +687,11 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/project/support/send/Inguerito.xlsx
+++ b/project/support/send/Inguerito.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project/support/send/Inguerito.xlsx
+++ b/project/support/send/Inguerito.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
